--- a/data/normalization_by_user_and_job.xlsx
+++ b/data/normalization_by_user_and_job.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
